--- a/biology/Botanique/Oléagineux/Oléagineux.xlsx
+++ b/biology/Botanique/Oléagineux/Oléagineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9agineux</t>
+          <t>Oléagineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oléagineux sont des plantes cultivées spécifiquement pour leurs graines ou leurs fruits riches en matières grasses, dont on extrait l’huile pour un usage alimentaire, énergétique ou industriel, par un procédé appelé trituration, au cours duquel les graines sont broyées et pressées, laissant alors un coproduit appelé tourteau d’oléagineux, généralement recyclé dans l'alimentation animale.
 On distingue :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ol%C3%A9agineux</t>
+          <t>Oléagineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ol%C3%A9agineux</t>
+          <t>Oléagineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oléagineux ont été exploités et apprêtés au moyen de diverses techniques, selon leur évolution.
 </t>
